--- a/Sprint0/08-09-2021/03_Product_Backlog.xlsx
+++ b/Sprint0/08-09-2021/03_Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\08-09-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F38B29B-FD9D-4777-8E27-2DC17CE6ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2416478D-545C-4E2B-91C6-A19C1C452C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
